--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_WTV_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_WTV_control_by_struct.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T2LV_log1p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,4 +680,526 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AV_2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-0.231, -0.053]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VA_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.018, 0.144]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.179</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>VLa_5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.053, 0.206]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>VLP_6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.044, 0.154]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>VPL_7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-0.024, 0.103]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.273</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Pul_8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.127, -0.049]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LGN_9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.206, -0.024]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MGN_10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.130, -0.003]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.065</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CM_11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.090, 0.091]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.991</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MD_Pf_12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.046, 0.056]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.946</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AV_2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.047</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-0.104, 0.011]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.545</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VA_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.021, 0.127]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.545</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>VLa_5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.057, 0.067]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.879</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>VLP_6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.019, 0.069]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.661</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>VPL_7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-0.036, 0.070]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.852</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Pul_8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.065</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.103, -0.028]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LGN_9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.068, 0.058]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.879</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MGN_10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.043, 0.052]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.879</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CM_11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.041, 0.071]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.852</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MD_Pf_12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.032, 0.057]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.852</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>